--- a/xlsx/美国机场列表_intext.xlsx
+++ b/xlsx/美国机场列表_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1167">
   <si>
     <t>美国机场列表</t>
   </si>
@@ -29,7 +29,7 @@
     <t>美国</t>
   </si>
   <si>
-    <t>政策_政策_美國_美国机场列表</t>
+    <t>政策_政策_美国_美国机场列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%BA%E5%9C%BA</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD</t>
   </si>
   <si>
-    <t>美國州份</t>
+    <t>美国州份</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E4%BA%A5%E4%BF%84%E5%B7%9E%E6%9C%BA%E5%9C%BA%E5%88%97%E8%A1%A8</t>
@@ -53,25 +53,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E8%92%99%E7%89%B9%E5%B7%9E%E6%A9%9F%E5%A0%B4%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>佛蒙特州機場列表</t>
+    <t>佛蒙特州机场列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>島嶼地區</t>
+    <t>岛屿地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6%E6%A9%9F%E5%A0%B4%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>關島機場列表</t>
+    <t>关岛机场列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A6%AC%E9%87%8C%E4%BA%9E%E7%B4%8D%E7%BE%A4%E5%B3%B6%E6%A9%9F%E5%A0%B4%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>北馬里亞納群島機場列表</t>
+    <t>北马里亚纳群岛机场列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E8%88%AA%E7%A9%BA%E7%AE%A1%E7%90%86%E5%B1%80</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/ICAO%E4%BB%A3%E7%A2%BC</t>
   </si>
   <si>
-    <t>ICAO代碼</t>
+    <t>ICAO代码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E6%B0%91%E8%88%AA%E7%BB%84%E7%BB%87</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%BE%85_(%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
   </si>
   <si>
-    <t>巴羅 (阿拉斯加州)</t>
+    <t>巴罗 (阿拉斯加州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%B0%94%E5%A4%9A%E7%93%A6_(%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
@@ -323,7 +323,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E8%96%A9_(%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E)</t>
   </si>
   <si>
-    <t>梅薩 (亞利桑那州)</t>
+    <t>梅萨 (亚利桑那州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%A4%E5%87%B0%E5%9F%8E_(%E4%BA%9A%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E)</t>
@@ -347,7 +347,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E9%A6%AC_(%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E)</t>
   </si>
   <si>
-    <t>尤馬 (亞利桑那州)</t>
+    <t>尤马 (亚利桑那州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%B9%E8%80%B6%E7%89%B9%E7%BB%B4%E5%B0%94_(%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E)</t>
@@ -467,13 +467,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E8%98%AD%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>奧克蘭國際機場 (美國)</t>
+    <t>奥克兰国际机场 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%A4%A7%E7%95%A5_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>安大略 (加利福尼亞州)</t>
+    <t>安大略 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%A4%A7%E7%95%A5%E5%9B%BD%E9%99%85%E6%9C%BA%E5%9C%BA</t>
@@ -485,13 +485,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A3%95%E6%AB%9A%E6%B3%89_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>棕櫚泉 (加利福尼亞州)</t>
+    <t>棕榈泉 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A3%95%E6%AB%9A%E6%B3%89%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>棕櫚泉國際機場</t>
+    <t>棕榈泉国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E4%B8%81_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -599,7 +599,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E6%B3%89_(%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>科羅拉多泉 (科羅拉多州)</t>
+    <t>科罗拉多泉 (科罗拉多州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BD%97%E6%8B%89%E5%A4%9A%E6%B3%89%E6%9C%BA%E5%9C%BA</t>
@@ -725,7 +725,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E7%88%BE%E6%9C%AC_(%E4%BD%9B%E7%BE%85%E9%87%8C%E9%81%94%E5%B7%9E)</t>
   </si>
   <si>
-    <t>墨爾本 (佛羅里達州)</t>
+    <t>墨尔本 (佛罗里达州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%88%E9%98%BF%E5%AF%86_(%E4%BD%9B%E7%BD%97%E9%87%8C%E8%BE%BE%E5%B7%9E)</t>
@@ -797,7 +797,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%A5%A7%E5%8F%A4%E6%96%AF%E4%B8%81_(%E4%BD%9B%E7%BE%85%E9%87%8C%E9%81%94%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖奧古斯丁 (佛羅里達州)</t>
+    <t>圣奥古斯丁 (佛罗里达州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%BD%BC%E5%BE%B7%E6%96%AF%E5%A0%A1_(%E4%BD%9B%E7%BD%97%E9%87%8C%E8%BE%BE%E5%B7%9E)</t>
@@ -809,7 +809,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E5%88%A9%E7%88%BE%E6%B2%83%E7%89%B9_(%E4%BD%9B%E7%BE%85%E9%87%8C%E9%81%94%E5%B7%9E)</t>
   </si>
   <si>
-    <t>克利爾沃特 (佛羅里達州)</t>
+    <t>克利尔沃特 (佛罗里达州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E6%8B%89%E5%93%88%E8%A5%BF_(%E4%BD%9B%E7%BD%97%E9%87%8C%E8%BE%BE%E5%B7%9E)</t>
@@ -827,7 +827,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9D%A6%E5%B8%95%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>坦帕國際機場</t>
+    <t>坦帕国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E5%B0%94%E9%A1%BF%E5%A0%A1%E6%BB%A9_(%E4%BD%9B%E7%BD%97%E9%87%8C%E8%BE%BE%E5%B7%9E)</t>
@@ -881,7 +881,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E6%B4%9B%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>希洛國際機場</t>
+    <t>希洛国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AA%80%E9%A6%99%E5%B1%B1_(%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B7%9E)</t>
@@ -893,19 +893,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E5%B0%BC%E7%88%BE%C2%B7%E4%BA%95%E4%B8%8A%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>丹尼爾·井上國際機場</t>
+    <t>丹尼尔·井上国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E7%9B%A7%E9%98%BF_(%E5%A4%8F%E5%A8%81%E5%A4%B7%E7%B8%A3)</t>
   </si>
   <si>
-    <t>凱盧阿 (夏威夷縣)</t>
+    <t>凯卢阿 (夏威夷县)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%B4%8D%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>科納國際機場</t>
+    <t>科纳国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E8%83%A1%E5%9F%83_(%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B7%9E)</t>
@@ -923,7 +923,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E4%BC%8A%E8%A5%BF%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>博伊西機場</t>
+    <t>博伊西机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E8%BE%BE%E8%8D%B7%E7%A6%8F%E5%B0%94%E6%96%AF_(%E7%88%B1%E8%BE%BE%E8%8D%B7%E5%B7%9E)</t>
@@ -1061,13 +1061,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BB%91%E9%90%B5%E7%9B%A7_(%E8%89%BE%E5%A5%A7%E7%93%A6%E5%B7%9E)</t>
   </si>
   <si>
-    <t>滑鐵盧 (艾奧瓦州)</t>
+    <t>滑铁卢 (艾奥瓦州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%93%88%E9%A0%93_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>曼哈頓 (堪薩斯州)</t>
+    <t>曼哈顿 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%A5%87%E6%89%98_(%E5%A0%AA%E8%90%A8%E6%96%AF%E5%B7%9E)</t>
@@ -1097,7 +1097,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%92%E6%98%9F%E9%A0%93_(%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E)</t>
   </si>
   <si>
-    <t>勒星頓 (肯塔基州)</t>
+    <t>勒星顿 (肯塔基州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%93%9D%E8%8D%89%E6%9C%BA%E5%9C%BA</t>
@@ -1109,7 +1109,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E7%B6%AD%E7%88%BE_(%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E)</t>
   </si>
   <si>
-    <t>路易維爾 (肯塔基州)</t>
+    <t>路易维尔 (肯塔基州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E7%BB%B4%E5%B0%94%E5%9B%BD%E9%99%85%E6%9C%BA%E5%9C%BA</t>
@@ -1145,7 +1145,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%B3%95%E8%91%89_(%E8%B7%AF%E6%98%93%E6%96%AF%E5%AE%89%E9%82%A3%E5%B7%9E)</t>
   </si>
   <si>
-    <t>拉法葉 (路易斯安那州)</t>
+    <t>拉法叶 (路易斯安那州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%B1%E5%85%8B%E6%9F%A5%E5%B0%94%E6%96%AF_(%E8%B7%AF%E6%98%93%E6%96%AF%E5%AE%89%E9%82%A3%E5%B7%9E)</t>
@@ -1199,7 +1199,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%9B%B7%E6%96%AF%E5%85%8B%E8%89%BE%E7%88%BE_(%E7%B7%AC%E5%9B%A0%E5%B7%9E)</t>
   </si>
   <si>
-    <t>普雷斯克艾爾 (緬因州)</t>
+    <t>普雷斯克艾尔 (缅因州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E5%85%8B%E5%85%B0_(%E7%BC%85%E5%9B%A0%E5%B7%9E)</t>
@@ -1223,13 +1223,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E7%88%BE%E8%8C%B2%E4%BC%AF%E9%87%8C_(%E9%A6%AC%E9%87%8C%E8%98%AD%E5%B7%9E)</t>
   </si>
   <si>
-    <t>索爾茲伯里 (馬里蘭州)</t>
+    <t>索尔兹伯里 (马里兰州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E6%A0%BC%E6%96%AF%E6%95%A6_(%E9%A6%AC%E9%87%8C%E8%98%AD%E5%B7%9E)</t>
   </si>
   <si>
-    <t>黑格斯敦 (馬里蘭州)</t>
+    <t>黑格斯敦 (马里兰州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A1%BF_(%E9%A9%AC%E8%90%A8%E8%AF%B8%E5%A1%9E%E5%B7%9E)</t>
@@ -1295,7 +1295,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%89%B9%E7%88%BE%E5%85%8B%E9%87%8C%E5%85%8B_(%E5%AF%86%E6%AD%87%E6%A0%B9%E5%B7%9E)</t>
   </si>
   <si>
-    <t>巴特爾克里克 (密歇根州)</t>
+    <t>巴特尔克里克 (密歇根州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B0%E8%BE%9B_(%E5%AF%86%E6%AD%87%E6%A0%B9%E5%B7%9E)</t>
@@ -1307,7 +1307,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%96%E7%91%AA%E9%BA%97_(%E5%AF%86%E8%A5%BF%E6%A0%B9%E5%B7%9E)</t>
   </si>
   <si>
-    <t>蘇聖瑪麗 (密西根州)</t>
+    <t>苏圣玛丽 (密西根州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E6%8B%89%E5%BC%97%E6%96%AF%E5%9F%8E_(%E5%AF%86%E6%AD%87%E6%A0%B9%E5%B7%9E)</t>
@@ -1319,7 +1319,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E9%AD%AF%E6%96%AF_(%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E)</t>
   </si>
   <si>
-    <t>杜魯斯 (明尼蘇達州)</t>
+    <t>杜鲁斯 (明尼苏达州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E7%80%91%E5%B8%83%E5%9F%8E_(%E6%98%8E%E5%B0%BC%E8%8B%8F%E8%BE%BE%E5%B7%9E)</t>
@@ -1373,7 +1373,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E_(%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E)</t>
   </si>
   <si>
-    <t>哥倫比亞 (密蘇里州)</t>
+    <t>哥伦比亚 (密苏里州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%90%A8%E6%96%AF%E5%9F%8E_(%E5%AF%86%E8%8B%8F%E9%87%8C%E5%B7%9E)</t>
@@ -1451,7 +1451,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E8%98%AD%E5%BE%B7%E8%89%BE%E8%98%AD_(%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
   </si>
   <si>
-    <t>格蘭德艾蘭 (內布拉斯加州)</t>
+    <t>格兰德艾兰 (内布拉斯加州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B0%BC_(%E5%86%85%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
@@ -1511,7 +1511,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E5%B7%B4%E5%AB%A9_(%E6%96%B0%E7%BD%95%E5%B8%83%E4%BB%80%E7%88%BE%E5%B7%9E)</t>
   </si>
   <si>
-    <t>萊巴嫩 (新罕布什爾州)</t>
+    <t>莱巴嫩 (新罕布什尔州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%BD%BB%E6%96%AF%E7%89%B9_(%E6%96%B0%E7%BD%95%E5%B8%83%E4%BB%80%E5%B0%94%E5%B7%9E)</t>
@@ -1529,7 +1529,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%9F%8E%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>大西洋城國際機場</t>
+    <t>大西洋城国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E4%BC%A6%E9%A1%BF_(%E6%96%B0%E6%B3%BD%E8%A5%BF%E5%B7%9E)</t>
@@ -1565,7 +1565,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E6%96%AF%E7%B6%AD%E7%88%BE_(%E6%96%B0%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%B7%9E)</t>
   </si>
   <si>
-    <t>羅斯維爾 (新墨西哥州)</t>
+    <t>罗斯维尔 (新墨西哥州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%8F%B2_(%E6%96%B0%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%B7%9E)</t>
@@ -1625,7 +1625,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E4%BA%9E%E5%8A%A0%E6%8B%89%E7%80%91%E5%B8%83%E5%9F%8E_(%E7%B4%90%E7%B4%84%E5%B7%9E)</t>
   </si>
   <si>
-    <t>尼亞加拉瀑布城 (紐約州)</t>
+    <t>尼亚加拉瀑布城 (纽约州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E6%8B%89%E8%8C%A8%E5%A0%A1_(%E7%BA%BD%E7%BA%A6%E5%B7%9E)</t>
@@ -1655,13 +1655,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E7%89%B9%E6%95%A6_(%E7%B4%90%E7%B4%84%E5%B7%9E)</t>
   </si>
   <si>
-    <t>沃特敦 (紐約州)</t>
+    <t>沃特敦 (纽约州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E5%8E%9F%E5%B8%82_(%E7%B4%90%E7%B4%84%E5%B7%9E)</t>
   </si>
   <si>
-    <t>白原市 (紐約州)</t>
+    <t>白原市 (纽约州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E4%BB%80%E7%BB%B4%E5%B0%94_(%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E)</t>
@@ -1673,13 +1673,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E6%B4%9B%E7%89%B9_(%E5%8C%97%E5%8D%A1%E7%BE%85%E4%BE%86%E7%B4%8D%E5%B7%9E)</t>
   </si>
   <si>
-    <t>夏洛特 (北卡羅來納州)</t>
+    <t>夏洛特 (北卡罗来纳州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E6%B4%9B%E7%89%B9%E9%81%93%E6%A0%BC%E6%8B%89%E6%96%AF%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>夏洛特道格拉斯國際機場</t>
+    <t>夏洛特道格拉斯国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%9E%97%E6%96%AF%E4%BC%AF%E5%8B%92_(%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E)</t>
@@ -1691,7 +1691,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%88%A9%E9%81%94%E6%8B%89%E5%A7%86%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>羅利達拉姆國際機場</t>
+    <t>罗利达拉姆国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%B0%94%E6%98%8E%E9%A1%BF_(%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E)</t>
@@ -1703,7 +1703,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%BE%E6%96%AF%E9%BA%A5_(%E5%8C%97%E9%81%94%E7%A7%91%E4%BB%96%E5%B7%9E)</t>
   </si>
   <si>
-    <t>俾斯麥 (北達科他州)</t>
+    <t>俾斯麦 (北达科他州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%AA%E9%87%91%E6%A3%AE_(%E5%8C%97%E8%BE%BE%E7%A7%91%E4%BB%96%E5%B7%9E)</t>
@@ -1721,7 +1721,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%A6%8F%E5%85%8B%E6%96%AF_(%E5%8C%97%E9%81%94%E7%A7%91%E4%BB%96%E5%B7%9E)</t>
   </si>
   <si>
-    <t>大福克斯 (北達科他州)</t>
+    <t>大福克斯 (北达科他州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%A6%8F%E5%85%8B%E6%96%AF%E5%9B%BD%E9%99%85%E6%9C%BA%E5%9C%BA</t>
@@ -1763,7 +1763,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E5%88%A9%E5%A4%AB%E8%98%AD%E9%9C%8D%E6%99%AE%E9%87%91%E6%96%AF%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>克利夫蘭霍普金斯國際機場</t>
+    <t>克利夫兰霍普金斯国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E5%B8%83%E5%9B%BD%E9%99%85%E6%9C%BA%E5%9C%BA</t>
@@ -1877,7 +1877,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%85%8B%E8%98%AD%E9%A0%93_(%E8%B3%93%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>斯克蘭頓 (賓夕法尼亞州)</t>
+    <t>斯克兰顿 (宾夕法尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%E6%96%AF%E6%B3%A2%E7%89%B9_(%E5%AE%BE%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -1901,7 +1901,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A5%A7%E5%A4%9A%C2%B7%E5%BC%97%E6%9C%97%E8%A5%BF%E6%96%AF%C2%B7%E6%A0%BC%E6%9E%97%E7%B4%80%E5%BF%B5%E5%B7%9E%E7%AB%8B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>西奧多·弗朗西斯·格林紀念州立機場</t>
+    <t>西奥多·弗朗西斯·格林纪念州立机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E5%B0%94%E6%96%AF%E9%A1%BF_(%E5%8D%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E)</t>
@@ -1961,13 +1961,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%87%8C%E6%96%AF%E6%89%98%E7%88%BE_(%E7%94%B0%E7%B4%8D%E8%A5%BF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>布里斯托爾 (田納西州)</t>
+    <t>布里斯托尔 (田纳西州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%E9%81%9C%E5%9F%8E_(%E7%94%B0%E7%B4%8D%E8%A5%BF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>約翰遜城 (田納西州)</t>
+    <t>约翰逊城 (田纳西州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%96%AF%E6%B3%A2%E7%89%B9_(%E7%94%B0%E7%BA%B3%E8%A5%BF%E5%B7%9E)</t>
@@ -1985,13 +1985,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E5%85%8B%E6%96%AF%E7%B6%AD%E7%88%BE_(%E7%94%B0%E7%B4%8D%E8%A5%BF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>諾克斯維爾 (田納西州)</t>
+    <t>诺克斯维尔 (田纳西州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E8%8F%B2%E6%96%AF_(%E7%94%B0%E7%B4%8D%E8%A5%BF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>孟菲斯 (田納西州)</t>
+    <t>孟菲斯 (田纳西州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E8%8F%B2%E6%96%AF%E5%9B%BD%E9%99%85%E6%9C%BA%E5%9C%BA</t>
@@ -2021,7 +2021,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%A6%AC%E9%87%8C%E6%B4%9B_(%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>阿馬里洛 (德克薩斯州)</t>
+    <t>阿马里洛 (德克萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E6%96%AF%E6%B1%80_(%E5%BE%97%E5%85%8B%E8%90%A8%E6%96%AF%E5%B7%9E)</t>
@@ -2039,19 +2039,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E8%92%99%E7%89%B9_(%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>博蒙特 (德克薩斯州)</t>
+    <t>博蒙特 (德克萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%9C%97%E6%96%AF%E7%B6%AD%E7%88%BE_(%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>布朗斯維爾 (德克薩斯州)</t>
+    <t>布朗斯维尔 (德克萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E5%9F%8E_(%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>大學城 (德克薩斯州)</t>
+    <t>大学城 (德克萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%8F%80%E6%96%AF%E5%85%8B%E9%87%8C%E6%96%AF%E8%92%82_(%E5%BE%97%E5%85%8B%E8%90%A8%E6%96%AF%E5%B7%9E)</t>
@@ -2081,7 +2081,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E7%88%BE%E5%B8%95%E7%B4%A2_(%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>艾爾帕索 (德克薩斯州)</t>
+    <t>艾尔帕索 (德克萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E6%9E%97_(%E5%BE%97%E5%85%8B%E8%90%A8%E6%96%AF%E5%B7%9E)</t>
@@ -2093,7 +2093,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E9%9D%88%E6%A0%B9_(%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>哈靈根 (德克薩斯州)</t>
+    <t>哈灵根 (德克萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E6%96%AF%E6%95%A6_(%E5%BE%97%E5%85%8B%E8%90%A8%E6%96%AF%E5%B7%9E)</t>
@@ -2117,13 +2117,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E9%9B%B7%E5%A4%9A_(%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>拉雷多 (德克薩斯州)</t>
+    <t>拉雷多 (德克萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%97%E7%B6%AD%E5%B0%A4_(%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>朗維尤 (德克薩斯州)</t>
+    <t>朗维尤 (德克萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%BC%AF%E5%85%8B_(%E5%BE%97%E5%85%8B%E8%90%A8%E6%96%AF%E5%B7%9E)</t>
@@ -2141,7 +2141,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%BE%B7%E8%98%AD_(%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>米德蘭 (德克薩斯州)</t>
+    <t>米德兰 (德克萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%AE%89%E4%B8%9C%E5%B0%BC%E5%A5%A5_(%E5%BE%97%E5%85%8B%E8%90%A8%E6%96%AF%E5%B7%9E)</t>
@@ -2153,13 +2153,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%AE%89%E6%9D%B1%E5%B0%BC%E5%A5%A7%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>聖安東尼奧國際機場</t>
+    <t>圣安东尼奥国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%8B%92_(%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>泰勒 (德克薩斯州)</t>
+    <t>泰勒 (德克萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%A6%E7%A7%91_(%E5%BE%97%E5%85%8B%E8%90%A8%E6%96%AF%E5%B7%9E)</t>
@@ -2213,25 +2213,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E5%A5%87%E5%A0%A1_(%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>林奇堡 (弗吉尼亞州)</t>
+    <t>林奇堡 (弗吉尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E6%B3%A2%E7%89%B9%E7%B4%90%E6%96%AF_(%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>紐波特紐斯 (維吉尼亞州)</t>
+    <t>纽波特纽斯 (维吉尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E7%A6%8F%E5%85%8B_(%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>諾福克 (弗吉尼亞州)</t>
+    <t>诺福克 (弗吉尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E7%A6%8F%E5%85%8B%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>諾福克國際機場</t>
+    <t>诺福克国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E5%A3%AB%E6%BB%A1_(%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -2249,19 +2249,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B9%AF%E9%A0%93_(%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>斯湯頓 (維吉尼亞州)</t>
+    <t>斯汤顿 (维吉尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%8B%E6%81%A9%E6%96%AF%E4%BC%AF%E5%8B%92_(%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>韋恩斯伯勒 (維吉尼亞州)</t>
+    <t>韦恩斯伯勒 (维吉尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E9%87%8C%E6%A3%AE%E5%A0%A1_(%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>哈里森堡 (維吉尼亞州)</t>
+    <t>哈里森堡 (维吉尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
@@ -2315,7 +2315,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%96%AF%E7%A7%91_(%E6%84%9B%E9%81%94%E8%8D%B7%E5%B7%9E)</t>
   </si>
   <si>
-    <t>莫斯科 (愛達荷州)</t>
+    <t>莫斯科 (爱达荷州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E5%B0%94%E6%9B%BC-%E8%8E%AB%E6%96%AF%E7%A7%91%E5%8C%BA%E5%9F%9F%E6%9C%BA%E5%9C%BA</t>
@@ -2465,7 +2465,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E6%9E%9C%E5%B8%95%E6%9E%9C%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>帕果帕果國際機場</t>
+    <t>帕果帕果国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%8A%A0%E5%B0%BC%E4%BA%9A</t>
@@ -2477,7 +2477,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>關島國際機場</t>
+    <t>关岛国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%8F%AD%E5%B2%9B</t>
@@ -2489,19 +2489,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%8F%AD%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>塞班國際機場</t>
+    <t>塞班国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%A1%94%E5%B3%B6</t>
   </si>
   <si>
-    <t>羅塔島</t>
+    <t>罗塔岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%A1%94%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>羅塔國際機場</t>
+    <t>罗塔国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%83%A1%E5%AE%89_(%E6%B3%A2%E5%A4%9A%E9%BB%8E%E5%90%84)</t>
@@ -2555,9 +2555,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E4%BD%9B%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>丹佛國際機場</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%B3%E5%BE%B7%E4%BB%A3%E5%B0%94%E5%A0%A1-%E5%A5%BD%E8%8E%B1%E5%9D%9E%E5%9B%BD%E9%99%85%E6%9C%BA%E5%9C%BA</t>
   </si>
   <si>
@@ -2567,15 +2564,9 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7%E5%B8%83%E4%BB%80%E6%B4%B2%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>喬治·布什洲際機場</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>洛杉磯國際機場</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%88%E9%98%BF%E5%AF%86%E5%9B%BD%E9%99%85%E6%9C%BA%E5%9C%BA</t>
   </si>
   <si>
@@ -2591,27 +2582,24 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%8F%AF%E5%85%8B%E8%87%AA%E7%94%B1%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>紐華克自由國際機場</t>
+    <t>纽华克自由国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E7%94%98%E8%BF%BA%E8%BF%AA%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>約翰·甘迺迪國際機場</t>
+    <t>约翰·甘迺迪国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E7%93%9C%E5%9C%B0%E4%BA%9E%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>拉瓜地亞機場</t>
+    <t>拉瓜地亚机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E5%9F%8E%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>費城國際機場</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%B0%BC%E5%85%8B%E6%96%AF%E5%A4%A9%E6%B8%AF%E5%9B%BD%E9%99%85%E6%9C%BA%E5%9C%BA</t>
   </si>
   <si>
@@ -2621,21 +2609,15 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%9C%B0%E7%89%99%E5%93%A5%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>聖地牙哥國際機場</t>
+    <t>圣地牙哥国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>舊金山國際機場</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%9B%85%E5%9C%96-%E5%A1%94%E7%A7%91%E9%A6%AC%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>西雅圖-塔科馬國際機場</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2</t>
   </si>
   <si>
@@ -2651,7 +2633,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%93%A5%E5%80%AB%E5%B8%83%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>前哥倫布時期</t>
+    <t>前哥伦布时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E6%AE%96%E6%B0%91%E5%9C%B0</t>
@@ -2675,7 +2657,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A0%98%E5%9C%9F%E8%AE%8A%E9%81%B7</t>
   </si>
   <si>
-    <t>美國領土變遷</t>
+    <t>美国领土变迁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E6%88%98</t>
@@ -2723,7 +2705,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E7%81%A3%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>波斯灣戰爭</t>
+    <t>波斯湾战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%81%90%E6%88%98%E4%BA%89</t>
@@ -2735,7 +2717,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%B5%B7%E5%98%AF</t>
   </si>
   <si>
-    <t>金融海嘯</t>
+    <t>金融海啸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3</t>
@@ -2765,7 +2747,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%83%B5%E6%94%BF%E7%BD%B2</t>
   </si>
   <si>
-    <t>美國郵政署</t>
+    <t>美国邮政署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%91%E5%AD%A6%E6%8A%80%E6%9C%AF</t>
@@ -2801,7 +2783,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
   </si>
   <si>
-    <t>權力分立</t>
+    <t>权力分立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
@@ -2837,7 +2819,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%A9%9F%E6%A7%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國聯邦機構列表</t>
+    <t>美国联邦机构列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
@@ -2867,7 +2849,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C%E7%8D%A8%E7%AB%8B%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>美國政府獨立機構</t>
+    <t>美国政府独立机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
@@ -2909,13 +2891,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%83%85%E5%A0%B1%E9%AB%94%E7%B3%BB</t>
   </si>
   <si>
-    <t>美國情報體系</t>
+    <t>美国情报体系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%83%85%E5%A0%B1%E7%B8%BD%E7%9B%A3</t>
   </si>
   <si>
-    <t>國家情報總監</t>
+    <t>国家情报总监</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E6%8A%A5%E5%B1%80</t>
@@ -2927,13 +2909,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>國防情報局</t>
+    <t>国防情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%9C%B0%E7%90%86%E7%A9%BA%E9%96%93%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>美國國家地理空間情報局</t>
+    <t>美国国家地理空间情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E4%BE%A6%E5%AF%9F%E5%B1%80</t>
@@ -2981,7 +2963,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%B0%91%E8%AD%A6%E8%A1%9B%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國國民警衛隊</t>
+    <t>美国国民警卫队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E6%B2%BB</t>
@@ -2993,7 +2975,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>美國選舉</t>
+    <t>美国选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%80%89%E4%B8%BE%E4%BA%BA%E5%9B%A2</t>
@@ -3035,7 +3017,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC51%E5%B7%9E</t>
   </si>
   <si>
-    <t>美國第51州</t>
+    <t>美国第51州</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Political_status_of_Puerto_Rico</t>
@@ -3047,7 +3029,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E5%B7%9E%E8%88%87%E8%97%8D%E5%B7%9E</t>
   </si>
   <si>
-    <t>紅州與藍州</t>
+    <t>红州与蓝州</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Purple_America</t>
@@ -3083,7 +3065,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E7%A3%AF%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>洛磯山脈</t>
+    <t>洛矶山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD%E5%88%97%E8%A1%A8</t>
@@ -3095,13 +3077,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>美國地區</t>
+    <t>美国地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
   </si>
   <si>
-    <t>新英格蘭</t>
+    <t>新英格兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%9C%B0%E5%8C%BA</t>
@@ -3113,13 +3095,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8D%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國南部</t>
+    <t>美国南部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E8%A5%BF%E9%83%A8</t>
   </si>
   <si>
-    <t>美國中西部</t>
+    <t>美国中西部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%A4%A7%E5%B9%B3%E5%8E%9F</t>
@@ -3131,13 +3113,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8C%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國西北部</t>
+    <t>美国西北部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8D%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國西南部</t>
+    <t>美国西南部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B2%B3%E6%B5%81%E5%88%97%E8%A1%A8</t>
@@ -3179,7 +3161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A2</t>
   </si>
   <si>
-    <t>美國夢</t>
+    <t>美国梦</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_States_federal_budget</t>
@@ -3191,13 +3173,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%84%B2%E5%82%99%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>聯邦儲備系統</t>
+    <t>联邦储备系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9A%84%E5%B7%A5%E6%9C%83</t>
   </si>
   <si>
-    <t>美國的工會</t>
+    <t>美国的工会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Social_programs_in_the_United_States</t>
@@ -3209,7 +3191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%82%B5</t>
   </si>
   <si>
-    <t>美國國債</t>
+    <t>美国国债</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Taxation_in_the_United_States</t>
@@ -3221,19 +3203,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%A4%E9%80%9A</t>
   </si>
   <si>
-    <t>美國交通</t>
+    <t>美国交通</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%81%93</t>
   </si>
   <si>
-    <t>美國國道</t>
+    <t>美国国道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>州際公路系統</t>
+    <t>州际公路系统</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Unemployment_in_the_United_States</t>
@@ -3257,7 +3239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>美國社會</t>
+    <t>美国社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8A%AF%E7%BD%AA</t>
@@ -3329,15 +3311,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83%E9%9A%8E%E5%B1%A4</t>
   </si>
   <si>
-    <t>美國社會階層</t>
+    <t>美国社会阶层</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%A2%A6</t>
   </si>
   <si>
-    <t>美国梦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BD%93%E8%82%B2</t>
   </si>
   <si>
@@ -3347,7 +3326,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8BLGBT%E6%AC%8A%E7%9B%8A</t>
   </si>
   <si>
-    <t>美國LGBT權益</t>
+    <t>美国LGBT权益</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
@@ -3401,7 +3380,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A3%B2%E9%A3%9F%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>美國飲食文化</t>
+    <t>美国饮食文化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E6%97%97</t>
@@ -3437,7 +3416,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>美國電視</t>
+    <t>美国电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%94%B5%E5%BD%B1</t>
@@ -3455,7 +3434,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E8%B1%A1%E8%A1%A8%E7%8F%BE%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>抽象表現主義</t>
+    <t>抽象表现主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A4%BE%E4%BC%9A%E9%97%AE%E9%A2%98</t>
@@ -3491,19 +3470,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%94%AF%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>美國槍支政治</t>
+    <t>美国枪支政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%9E%9D%E6%9A%B4%E5%8A%9B%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>美國槍枝暴力問題</t>
+    <t>美国枪枝暴力问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%86%AB%E7%99%82%E6%94%B9%E9%9D%A9</t>
   </si>
   <si>
-    <t>美國醫療改革</t>
+    <t>美国医疗改革</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%9D%83</t>
@@ -3515,7 +3494,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E9%82%8A%E7%95%8C</t>
   </si>
   <si>
-    <t>美墨邊界</t>
+    <t>美墨边界</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%82%A5%E8%83%96%E9%97%AE%E9%A2%98</t>
@@ -16174,7 +16153,7 @@
         <v>845</v>
       </c>
       <c r="F424" t="s">
-        <v>846</v>
+        <v>200</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -16200,10 +16179,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
+        <v>846</v>
+      </c>
+      <c r="F425" t="s">
         <v>847</v>
-      </c>
-      <c r="F425" t="s">
-        <v>848</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -16229,10 +16208,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="F426" t="s">
-        <v>850</v>
+        <v>696</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -16258,10 +16237,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="F427" t="s">
-        <v>852</v>
+        <v>140</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -16287,10 +16266,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="F428" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -16316,10 +16295,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="F429" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -16345,10 +16324,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="F430" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -16374,10 +16353,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="F431" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -16403,10 +16382,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="F432" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -16432,10 +16411,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="F433" t="s">
-        <v>864</v>
+        <v>610</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -16461,10 +16440,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="F434" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -16490,10 +16469,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="F435" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -16519,10 +16498,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="F436" t="s">
-        <v>870</v>
+        <v>172</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -16548,10 +16527,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="F437" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -16606,10 +16585,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="F439" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="G439" t="n">
         <v>3</v>
@@ -16635,10 +16614,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="F440" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -16664,10 +16643,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="F441" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -16693,10 +16672,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="F442" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -16722,10 +16701,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="F443" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -16751,10 +16730,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="F444" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -16780,10 +16759,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="F445" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -16809,10 +16788,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="F446" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -16838,10 +16817,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="F447" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -16867,10 +16846,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="F448" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -16896,10 +16875,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="F449" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -16925,10 +16904,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="F450" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -16954,10 +16933,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="F451" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -16983,10 +16962,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="F452" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -17012,10 +16991,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="F453" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -17041,10 +17020,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="F454" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -17070,10 +17049,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="F455" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -17099,10 +17078,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="F456" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="G456" t="n">
         <v>2</v>
@@ -17128,10 +17107,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="F457" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="G457" t="n">
         <v>2</v>
@@ -17157,10 +17136,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="F458" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -17186,10 +17165,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="F459" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="G459" t="n">
         <v>2</v>
@@ -17215,10 +17194,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="F460" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -17244,10 +17223,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="F461" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -17273,10 +17252,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="F462" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -17302,10 +17281,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="F463" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -17331,10 +17310,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="F464" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="G464" t="n">
         <v>1</v>
@@ -17360,10 +17339,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="F465" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -17389,10 +17368,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="F466" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -17418,10 +17397,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="F467" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="G467" t="n">
         <v>1</v>
@@ -17447,10 +17426,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
       <c r="F468" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -17476,10 +17455,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="F469" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="G469" t="n">
         <v>1</v>
@@ -17505,10 +17484,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="F470" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -17534,10 +17513,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="F471" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -17563,10 +17542,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="F472" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
@@ -17592,10 +17571,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="F473" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="G473" t="n">
         <v>3</v>
@@ -17621,10 +17600,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="F474" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -17650,10 +17629,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="F475" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="G475" t="n">
         <v>1</v>
@@ -17679,10 +17658,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="F476" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -17708,10 +17687,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="F477" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -17737,10 +17716,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="F478" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
@@ -17766,10 +17745,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="F479" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
@@ -17795,10 +17774,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="F480" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="G480" t="n">
         <v>1</v>
@@ -17824,10 +17803,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="F481" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
@@ -17853,10 +17832,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="F482" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -17882,10 +17861,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="F483" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="G483" t="n">
         <v>1</v>
@@ -17911,10 +17890,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="F484" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
       <c r="G484" t="n">
         <v>3</v>
@@ -17940,10 +17919,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="F485" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -17969,10 +17948,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="F486" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
       <c r="G486" t="n">
         <v>1</v>
@@ -17998,10 +17977,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="F487" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
       <c r="G487" t="n">
         <v>1</v>
@@ -18027,10 +18006,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
       <c r="F488" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
@@ -18056,10 +18035,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
       <c r="F489" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
       <c r="G489" t="n">
         <v>1</v>
@@ -18085,10 +18064,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="F490" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="G490" t="n">
         <v>1</v>
@@ -18114,10 +18093,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="F491" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="G491" t="n">
         <v>1</v>
@@ -18143,10 +18122,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="F492" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="G492" t="n">
         <v>1</v>
@@ -18172,10 +18151,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="F493" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -18201,10 +18180,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="F494" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="G494" t="n">
         <v>2</v>
@@ -18230,10 +18209,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
       <c r="F495" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="G495" t="n">
         <v>1</v>
@@ -18259,10 +18238,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="F496" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="G496" t="n">
         <v>1</v>
@@ -18288,10 +18267,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="F497" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="G497" t="n">
         <v>4</v>
@@ -18317,10 +18296,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="F498" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="G498" t="n">
         <v>2</v>
@@ -18346,10 +18325,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="F499" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="G499" t="n">
         <v>1</v>
@@ -18375,10 +18354,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="F500" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="G500" t="n">
         <v>1</v>
@@ -18404,10 +18383,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="F501" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="G501" t="n">
         <v>1</v>
@@ -18433,10 +18412,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="F502" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="G502" t="n">
         <v>1</v>
@@ -18462,10 +18441,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="F503" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="G503" t="n">
         <v>1</v>
@@ -18491,10 +18470,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="F504" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="G504" t="n">
         <v>1</v>
@@ -18520,10 +18499,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="F505" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="G505" t="n">
         <v>1</v>
@@ -18549,10 +18528,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="F506" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="G506" t="n">
         <v>1</v>
@@ -18578,10 +18557,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="F507" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="G507" t="n">
         <v>1</v>
@@ -18607,10 +18586,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="F508" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="G508" t="n">
         <v>1</v>
@@ -18636,10 +18615,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="F509" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="G509" t="n">
         <v>1</v>
@@ -18665,10 +18644,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="F510" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="G510" t="n">
         <v>3</v>
@@ -18694,10 +18673,10 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="F511" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="G511" t="n">
         <v>28</v>
@@ -18723,10 +18702,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="F512" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="G512" t="n">
         <v>1</v>
@@ -18752,10 +18731,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="F513" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="G513" t="n">
         <v>1</v>
@@ -18781,10 +18760,10 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="F514" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="G514" t="n">
         <v>3</v>
@@ -18810,10 +18789,10 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="F515" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="G515" t="n">
         <v>2</v>
@@ -18839,10 +18818,10 @@
         <v>515</v>
       </c>
       <c r="E516" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="F516" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="G516" t="n">
         <v>1</v>
@@ -18868,10 +18847,10 @@
         <v>516</v>
       </c>
       <c r="E517" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="F517" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="G517" t="n">
         <v>1</v>
@@ -18897,10 +18876,10 @@
         <v>517</v>
       </c>
       <c r="E518" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="F518" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="G518" t="n">
         <v>1</v>
@@ -18926,10 +18905,10 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="F519" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="G519" t="n">
         <v>1</v>
@@ -18955,10 +18934,10 @@
         <v>519</v>
       </c>
       <c r="E520" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="F520" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
       <c r="G520" t="n">
         <v>1</v>
@@ -18984,10 +18963,10 @@
         <v>520</v>
       </c>
       <c r="E521" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="F521" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="G521" t="n">
         <v>1</v>
@@ -19013,10 +18992,10 @@
         <v>521</v>
       </c>
       <c r="E522" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="F522" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
       <c r="G522" t="n">
         <v>1</v>
@@ -19042,10 +19021,10 @@
         <v>522</v>
       </c>
       <c r="E523" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="F523" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="G523" t="n">
         <v>1</v>
@@ -19071,10 +19050,10 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
       <c r="F524" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
       <c r="G524" t="n">
         <v>1</v>
@@ -19100,10 +19079,10 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="F525" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="G525" t="n">
         <v>1</v>
@@ -19129,10 +19108,10 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="F526" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
       <c r="G526" t="n">
         <v>1</v>
@@ -19158,10 +19137,10 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="F527" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="G527" t="n">
         <v>2</v>
@@ -19187,10 +19166,10 @@
         <v>527</v>
       </c>
       <c r="E528" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="F528" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="G528" t="n">
         <v>1</v>
@@ -19216,10 +19195,10 @@
         <v>528</v>
       </c>
       <c r="E529" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="F529" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="G529" t="n">
         <v>1</v>
@@ -19245,10 +19224,10 @@
         <v>529</v>
       </c>
       <c r="E530" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="F530" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="G530" t="n">
         <v>1</v>
@@ -19274,10 +19253,10 @@
         <v>530</v>
       </c>
       <c r="E531" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="F531" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="G531" t="n">
         <v>1</v>
@@ -19303,10 +19282,10 @@
         <v>531</v>
       </c>
       <c r="E532" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
       <c r="F532" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
       <c r="G532" t="n">
         <v>1</v>
@@ -19332,10 +19311,10 @@
         <v>532</v>
       </c>
       <c r="E533" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
       <c r="F533" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
       <c r="G533" t="n">
         <v>1</v>
@@ -19361,10 +19340,10 @@
         <v>533</v>
       </c>
       <c r="E534" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="F534" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="G534" t="n">
         <v>1</v>
@@ -19390,10 +19369,10 @@
         <v>534</v>
       </c>
       <c r="E535" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="F535" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
       <c r="G535" t="n">
         <v>1</v>
@@ -19419,10 +19398,10 @@
         <v>535</v>
       </c>
       <c r="E536" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="F536" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="G536" t="n">
         <v>1</v>
@@ -19448,10 +19427,10 @@
         <v>536</v>
       </c>
       <c r="E537" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="F537" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="G537" t="n">
         <v>1</v>
@@ -19477,10 +19456,10 @@
         <v>537</v>
       </c>
       <c r="E538" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="F538" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="G538" t="n">
         <v>1</v>
@@ -19506,10 +19485,10 @@
         <v>538</v>
       </c>
       <c r="E539" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="F539" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="G539" t="n">
         <v>1</v>
@@ -19535,10 +19514,10 @@
         <v>539</v>
       </c>
       <c r="E540" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="F540" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="G540" t="n">
         <v>1</v>
@@ -19564,10 +19543,10 @@
         <v>540</v>
       </c>
       <c r="E541" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="F541" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="G541" t="n">
         <v>1</v>
@@ -19593,10 +19572,10 @@
         <v>541</v>
       </c>
       <c r="E542" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="F542" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="G542" t="n">
         <v>3</v>
@@ -19622,10 +19601,10 @@
         <v>542</v>
       </c>
       <c r="E543" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="F543" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="G543" t="n">
         <v>1</v>
@@ -19651,10 +19630,10 @@
         <v>543</v>
       </c>
       <c r="E544" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="F544" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="G544" t="n">
         <v>2</v>
@@ -19680,10 +19659,10 @@
         <v>544</v>
       </c>
       <c r="E545" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="F545" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="G545" t="n">
         <v>1</v>
@@ -19709,10 +19688,10 @@
         <v>545</v>
       </c>
       <c r="E546" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F546" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="G546" t="n">
         <v>1</v>
@@ -19738,10 +19717,10 @@
         <v>546</v>
       </c>
       <c r="E547" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F547" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="G547" t="n">
         <v>1</v>
@@ -19767,10 +19746,10 @@
         <v>547</v>
       </c>
       <c r="E548" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="F548" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
       <c r="G548" t="n">
         <v>1</v>
@@ -19796,10 +19775,10 @@
         <v>548</v>
       </c>
       <c r="E549" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="F549" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="G549" t="n">
         <v>1</v>
@@ -19825,10 +19804,10 @@
         <v>549</v>
       </c>
       <c r="E550" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="F550" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="G550" t="n">
         <v>4</v>
@@ -19854,10 +19833,10 @@
         <v>550</v>
       </c>
       <c r="E551" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="F551" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="G551" t="n">
         <v>3</v>
@@ -19883,10 +19862,10 @@
         <v>551</v>
       </c>
       <c r="E552" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="F552" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="G552" t="n">
         <v>1</v>
@@ -19912,10 +19891,10 @@
         <v>552</v>
       </c>
       <c r="E553" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F553" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
       <c r="G553" t="n">
         <v>1</v>
@@ -19941,10 +19920,10 @@
         <v>553</v>
       </c>
       <c r="E554" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="F554" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="G554" t="n">
         <v>1</v>
@@ -19970,10 +19949,10 @@
         <v>554</v>
       </c>
       <c r="E555" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
       <c r="F555" t="s">
-        <v>1106</v>
+        <v>1048</v>
       </c>
       <c r="G555" t="n">
         <v>1</v>
@@ -19999,10 +19978,10 @@
         <v>555</v>
       </c>
       <c r="E556" t="s">
-        <v>1107</v>
+        <v>1100</v>
       </c>
       <c r="F556" t="s">
-        <v>1108</v>
+        <v>1101</v>
       </c>
       <c r="G556" t="n">
         <v>1</v>
@@ -20028,10 +20007,10 @@
         <v>556</v>
       </c>
       <c r="E557" t="s">
-        <v>1109</v>
+        <v>1102</v>
       </c>
       <c r="F557" t="s">
-        <v>1110</v>
+        <v>1103</v>
       </c>
       <c r="G557" t="n">
         <v>1</v>
@@ -20057,10 +20036,10 @@
         <v>557</v>
       </c>
       <c r="E558" t="s">
-        <v>1111</v>
+        <v>1104</v>
       </c>
       <c r="F558" t="s">
-        <v>1112</v>
+        <v>1105</v>
       </c>
       <c r="G558" t="n">
         <v>1</v>
@@ -20086,10 +20065,10 @@
         <v>558</v>
       </c>
       <c r="E559" t="s">
-        <v>1113</v>
+        <v>1106</v>
       </c>
       <c r="F559" t="s">
-        <v>1114</v>
+        <v>1107</v>
       </c>
       <c r="G559" t="n">
         <v>1</v>
@@ -20115,10 +20094,10 @@
         <v>559</v>
       </c>
       <c r="E560" t="s">
-        <v>1115</v>
+        <v>1108</v>
       </c>
       <c r="F560" t="s">
-        <v>1116</v>
+        <v>1109</v>
       </c>
       <c r="G560" t="n">
         <v>2</v>
@@ -20144,10 +20123,10 @@
         <v>560</v>
       </c>
       <c r="E561" t="s">
-        <v>1117</v>
+        <v>1110</v>
       </c>
       <c r="F561" t="s">
-        <v>1118</v>
+        <v>1111</v>
       </c>
       <c r="G561" t="n">
         <v>1</v>
@@ -20173,10 +20152,10 @@
         <v>561</v>
       </c>
       <c r="E562" t="s">
-        <v>1119</v>
+        <v>1112</v>
       </c>
       <c r="F562" t="s">
-        <v>1120</v>
+        <v>1113</v>
       </c>
       <c r="G562" t="n">
         <v>1</v>
@@ -20202,10 +20181,10 @@
         <v>562</v>
       </c>
       <c r="E563" t="s">
-        <v>1121</v>
+        <v>1114</v>
       </c>
       <c r="F563" t="s">
-        <v>1122</v>
+        <v>1115</v>
       </c>
       <c r="G563" t="n">
         <v>1</v>
@@ -20231,10 +20210,10 @@
         <v>563</v>
       </c>
       <c r="E564" t="s">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="F564" t="s">
-        <v>1124</v>
+        <v>1117</v>
       </c>
       <c r="G564" t="n">
         <v>1</v>
@@ -20260,10 +20239,10 @@
         <v>564</v>
       </c>
       <c r="E565" t="s">
-        <v>1125</v>
+        <v>1118</v>
       </c>
       <c r="F565" t="s">
-        <v>1126</v>
+        <v>1119</v>
       </c>
       <c r="G565" t="n">
         <v>1</v>
@@ -20289,10 +20268,10 @@
         <v>565</v>
       </c>
       <c r="E566" t="s">
-        <v>1127</v>
+        <v>1120</v>
       </c>
       <c r="F566" t="s">
-        <v>1128</v>
+        <v>1121</v>
       </c>
       <c r="G566" t="n">
         <v>1</v>
@@ -20318,10 +20297,10 @@
         <v>566</v>
       </c>
       <c r="E567" t="s">
-        <v>1129</v>
+        <v>1122</v>
       </c>
       <c r="F567" t="s">
-        <v>1130</v>
+        <v>1123</v>
       </c>
       <c r="G567" t="n">
         <v>1</v>
@@ -20347,10 +20326,10 @@
         <v>567</v>
       </c>
       <c r="E568" t="s">
-        <v>1131</v>
+        <v>1124</v>
       </c>
       <c r="F568" t="s">
-        <v>1132</v>
+        <v>1125</v>
       </c>
       <c r="G568" t="n">
         <v>4</v>
@@ -20376,10 +20355,10 @@
         <v>568</v>
       </c>
       <c r="E569" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="F569" t="s">
-        <v>1134</v>
+        <v>1127</v>
       </c>
       <c r="G569" t="n">
         <v>1</v>
@@ -20405,10 +20384,10 @@
         <v>569</v>
       </c>
       <c r="E570" t="s">
-        <v>1135</v>
+        <v>1128</v>
       </c>
       <c r="F570" t="s">
-        <v>1136</v>
+        <v>1129</v>
       </c>
       <c r="G570" t="n">
         <v>1</v>
@@ -20434,10 +20413,10 @@
         <v>570</v>
       </c>
       <c r="E571" t="s">
-        <v>1137</v>
+        <v>1130</v>
       </c>
       <c r="F571" t="s">
-        <v>1138</v>
+        <v>1131</v>
       </c>
       <c r="G571" t="n">
         <v>1</v>
@@ -20463,10 +20442,10 @@
         <v>571</v>
       </c>
       <c r="E572" t="s">
-        <v>1139</v>
+        <v>1132</v>
       </c>
       <c r="F572" t="s">
-        <v>1140</v>
+        <v>1133</v>
       </c>
       <c r="G572" t="n">
         <v>1</v>
@@ -20492,10 +20471,10 @@
         <v>572</v>
       </c>
       <c r="E573" t="s">
-        <v>1141</v>
+        <v>1134</v>
       </c>
       <c r="F573" t="s">
-        <v>1142</v>
+        <v>1135</v>
       </c>
       <c r="G573" t="n">
         <v>1</v>
@@ -20521,10 +20500,10 @@
         <v>573</v>
       </c>
       <c r="E574" t="s">
-        <v>1143</v>
+        <v>1136</v>
       </c>
       <c r="F574" t="s">
-        <v>1144</v>
+        <v>1137</v>
       </c>
       <c r="G574" t="n">
         <v>3</v>
@@ -20550,10 +20529,10 @@
         <v>574</v>
       </c>
       <c r="E575" t="s">
-        <v>1145</v>
+        <v>1138</v>
       </c>
       <c r="F575" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="G575" t="n">
         <v>1</v>
@@ -20579,10 +20558,10 @@
         <v>575</v>
       </c>
       <c r="E576" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F576" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
       <c r="G576" t="n">
         <v>2</v>
@@ -20608,10 +20587,10 @@
         <v>576</v>
       </c>
       <c r="E577" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F577" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="G577" t="n">
         <v>1</v>
@@ -20637,10 +20616,10 @@
         <v>577</v>
       </c>
       <c r="E578" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
       <c r="F578" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
       <c r="G578" t="n">
         <v>1</v>
@@ -20666,10 +20645,10 @@
         <v>578</v>
       </c>
       <c r="E579" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
       <c r="F579" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
       <c r="G579" t="n">
         <v>1</v>
@@ -20695,10 +20674,10 @@
         <v>579</v>
       </c>
       <c r="E580" t="s">
-        <v>1155</v>
+        <v>1148</v>
       </c>
       <c r="F580" t="s">
-        <v>1156</v>
+        <v>1149</v>
       </c>
       <c r="G580" t="n">
         <v>1</v>
@@ -20724,10 +20703,10 @@
         <v>580</v>
       </c>
       <c r="E581" t="s">
-        <v>1157</v>
+        <v>1150</v>
       </c>
       <c r="F581" t="s">
-        <v>1158</v>
+        <v>1151</v>
       </c>
       <c r="G581" t="n">
         <v>1</v>
@@ -20753,10 +20732,10 @@
         <v>581</v>
       </c>
       <c r="E582" t="s">
-        <v>1159</v>
+        <v>1152</v>
       </c>
       <c r="F582" t="s">
-        <v>1160</v>
+        <v>1153</v>
       </c>
       <c r="G582" t="n">
         <v>1</v>
@@ -20782,10 +20761,10 @@
         <v>582</v>
       </c>
       <c r="E583" t="s">
-        <v>1161</v>
+        <v>1154</v>
       </c>
       <c r="F583" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
       <c r="G583" t="n">
         <v>1</v>
@@ -20811,10 +20790,10 @@
         <v>583</v>
       </c>
       <c r="E584" t="s">
-        <v>1163</v>
+        <v>1156</v>
       </c>
       <c r="F584" t="s">
-        <v>1164</v>
+        <v>1157</v>
       </c>
       <c r="G584" t="n">
         <v>2</v>
@@ -20840,10 +20819,10 @@
         <v>584</v>
       </c>
       <c r="E585" t="s">
-        <v>1165</v>
+        <v>1158</v>
       </c>
       <c r="F585" t="s">
-        <v>1166</v>
+        <v>1159</v>
       </c>
       <c r="G585" t="n">
         <v>1</v>
@@ -20869,10 +20848,10 @@
         <v>585</v>
       </c>
       <c r="E586" t="s">
-        <v>1167</v>
+        <v>1160</v>
       </c>
       <c r="F586" t="s">
-        <v>1168</v>
+        <v>1161</v>
       </c>
       <c r="G586" t="n">
         <v>1</v>
@@ -20898,10 +20877,10 @@
         <v>586</v>
       </c>
       <c r="E587" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
       <c r="F587" t="s">
-        <v>1170</v>
+        <v>1163</v>
       </c>
       <c r="G587" t="n">
         <v>1</v>
@@ -20927,10 +20906,10 @@
         <v>587</v>
       </c>
       <c r="E588" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
       <c r="F588" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="G588" t="n">
         <v>2</v>
@@ -20956,10 +20935,10 @@
         <v>588</v>
       </c>
       <c r="E589" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
       <c r="F589" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
       <c r="G589" t="n">
         <v>1</v>
